--- a/Data_frame/balancos_definitivos/CESP3.xlsx
+++ b/Data_frame/balancos_definitivos/CESP3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM80"/>
+  <dimension ref="A1:BI80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,40 +721,20 @@
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2022</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2022</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
           <t>30/06/2023</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>30/09/2023</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>31/12/2023</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>31/03/2024</t>
         </is>
@@ -773,31 +753,31 @@
         <v>19284187.136</v>
       </c>
       <c r="D2" t="n">
-        <v>3517570.048</v>
+        <v>17061183.488</v>
       </c>
       <c r="E2" t="n">
-        <v>3634429.952</v>
+        <v>17018720.256</v>
       </c>
       <c r="F2" t="n">
-        <v>3545306.112</v>
+        <v>16800123.904</v>
       </c>
       <c r="G2" t="n">
-        <v>3592280.064</v>
+        <v>16733919.232</v>
       </c>
       <c r="H2" t="n">
-        <v>3568293.888</v>
+        <v>16315138.048</v>
       </c>
       <c r="I2" t="n">
-        <v>3667716.096</v>
+        <v>19515588.608</v>
       </c>
       <c r="J2" t="n">
-        <v>3608472.064</v>
+        <v>19297531.904</v>
       </c>
       <c r="K2" t="n">
-        <v>3708272.896</v>
+        <v>19094050.816</v>
       </c>
       <c r="L2" t="n">
-        <v>3680215.04</v>
+        <v>18884003.84</v>
       </c>
       <c r="M2" t="n">
         <v>18649331.712</v>
@@ -926,36 +906,24 @@
         <v>14086168.576</v>
       </c>
       <c r="BC2" t="n">
-        <v>12238999.552</v>
+        <v>14537360.384</v>
       </c>
       <c r="BD2" t="n">
-        <v>12986000.384</v>
+        <v>14427182.08</v>
       </c>
       <c r="BE2" t="n">
-        <v>12912000</v>
+        <v>14405971.968</v>
       </c>
       <c r="BF2" t="n">
-        <v>13864999.936</v>
+        <v>16833598.464</v>
       </c>
       <c r="BG2" t="n">
-        <v>13434000.384</v>
+        <v>15016113.152</v>
       </c>
       <c r="BH2" t="n">
-        <v>13187000.32</v>
+        <v>13568181.248</v>
       </c>
       <c r="BI2" t="n">
-        <v>13075000.32</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>13637999.616</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>13347999.744</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>13568181.248</v>
-      </c>
-      <c r="BM2" t="n">
         <v>13706649.6</v>
       </c>
     </row>
@@ -972,31 +940,31 @@
         <v>945118.0159999999</v>
       </c>
       <c r="D3" t="n">
-        <v>1211548.032</v>
+        <v>1036715.008</v>
       </c>
       <c r="E3" t="n">
-        <v>1342967.04</v>
+        <v>1044961.984</v>
       </c>
       <c r="F3" t="n">
-        <v>1224983.04</v>
+        <v>928744</v>
       </c>
       <c r="G3" t="n">
-        <v>1220434.944</v>
+        <v>814828.032</v>
       </c>
       <c r="H3" t="n">
-        <v>1304295.04</v>
+        <v>852076.032</v>
       </c>
       <c r="I3" t="n">
-        <v>1028915.968</v>
+        <v>839697.024</v>
       </c>
       <c r="J3" t="n">
-        <v>951555.968</v>
+        <v>894134.0159999999</v>
       </c>
       <c r="K3" t="n">
-        <v>1000860.032</v>
+        <v>885516.032</v>
       </c>
       <c r="L3" t="n">
-        <v>937716.992</v>
+        <v>857841.9840000001</v>
       </c>
       <c r="M3" t="n">
         <v>795652.992</v>
@@ -1125,36 +1093,24 @@
         <v>934521.024</v>
       </c>
       <c r="BC3" t="n">
-        <v>3420000</v>
+        <v>1063177.984</v>
       </c>
       <c r="BD3" t="n">
-        <v>4184999.936</v>
+        <v>1094337.024</v>
       </c>
       <c r="BE3" t="n">
-        <v>3937999.872</v>
+        <v>1157958.016</v>
       </c>
       <c r="BF3" t="n">
-        <v>4560000</v>
+        <v>5403371.008</v>
       </c>
       <c r="BG3" t="n">
-        <v>4004999.936</v>
+        <v>3289614.08</v>
       </c>
       <c r="BH3" t="n">
-        <v>3673999.872</v>
+        <v>1658865.024</v>
       </c>
       <c r="BI3" t="n">
-        <v>3396999.936</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>3944000</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>3272999.936</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>1658865.024</v>
-      </c>
-      <c r="BM3" t="n">
         <v>1839283.968</v>
       </c>
     </row>
@@ -1171,31 +1127,31 @@
         <v>335665.984</v>
       </c>
       <c r="D4" t="n">
-        <v>131300</v>
+        <v>411806.016</v>
       </c>
       <c r="E4" t="n">
-        <v>147095.008</v>
+        <v>406331.008</v>
       </c>
       <c r="F4" t="n">
-        <v>76554</v>
+        <v>379812.992</v>
       </c>
       <c r="G4" t="n">
-        <v>131382</v>
+        <v>226818</v>
       </c>
       <c r="H4" t="n">
-        <v>90168</v>
+        <v>229456.992</v>
       </c>
       <c r="I4" t="n">
-        <v>148215.008</v>
+        <v>203836</v>
       </c>
       <c r="J4" t="n">
-        <v>86396</v>
+        <v>259050</v>
       </c>
       <c r="K4" t="n">
-        <v>130065</v>
+        <v>343585.984</v>
       </c>
       <c r="L4" t="n">
-        <v>40871</v>
+        <v>77</v>
       </c>
       <c r="M4" t="n">
         <v>1669</v>
@@ -1324,36 +1280,24 @@
         <v>542876.992</v>
       </c>
       <c r="BC4" t="n">
-        <v>315000</v>
+        <v>397464.992</v>
       </c>
       <c r="BD4" t="n">
-        <v>673000</v>
+        <v>202</v>
       </c>
       <c r="BE4" t="n">
-        <v>522000</v>
+        <v>477120.992</v>
       </c>
       <c r="BF4" t="n">
-        <v>1431000.064</v>
+        <v>5082208.256</v>
       </c>
       <c r="BG4" t="n">
-        <v>1240999.936</v>
+        <v>2995273.984</v>
       </c>
       <c r="BH4" t="n">
-        <v>907000</v>
+        <v>1385028.992</v>
       </c>
       <c r="BI4" t="n">
-        <v>525000</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>901000</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>450000</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>1385028.992</v>
-      </c>
-      <c r="BM4" t="n">
         <v>1563177.984</v>
       </c>
     </row>
@@ -1394,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>17274</v>
+        <v>170683.008</v>
       </c>
       <c r="M5" t="n">
         <v>268951.008</v>
@@ -1523,36 +1467,24 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>14000</v>
+        <v>505780</v>
       </c>
       <c r="BE5" t="n">
-        <v>18000</v>
+        <v>124662</v>
       </c>
       <c r="BF5" t="n">
-        <v>33000</v>
+        <v>59610</v>
       </c>
       <c r="BG5" t="n">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="BH5" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>19000</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>35000</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1569,31 +1501,31 @@
         <v>371736</v>
       </c>
       <c r="D6" t="n">
-        <v>1076230.016</v>
+        <v>343608.992</v>
       </c>
       <c r="E6" t="n">
-        <v>1191171.968</v>
+        <v>376844</v>
       </c>
       <c r="F6" t="n">
-        <v>1143614.976</v>
+        <v>342852.992</v>
       </c>
       <c r="G6" t="n">
-        <v>1084633.984</v>
+        <v>337220</v>
       </c>
       <c r="H6" t="n">
-        <v>1208620.032</v>
+        <v>340196.992</v>
       </c>
       <c r="I6" t="n">
-        <v>777208</v>
+        <v>353832</v>
       </c>
       <c r="J6" t="n">
-        <v>797257.9840000001</v>
+        <v>319463.008</v>
       </c>
       <c r="K6" t="n">
-        <v>786188.032</v>
+        <v>340655.008</v>
       </c>
       <c r="L6" t="n">
-        <v>734278.976</v>
+        <v>353702.016</v>
       </c>
       <c r="M6" t="n">
         <v>362777.984</v>
@@ -1722,36 +1654,24 @@
         <v>239618</v>
       </c>
       <c r="BC6" t="n">
-        <v>1652000</v>
+        <v>262968.992</v>
       </c>
       <c r="BD6" t="n">
-        <v>1944000</v>
+        <v>268439.008</v>
       </c>
       <c r="BE6" t="n">
-        <v>1838000</v>
+        <v>240032.992</v>
       </c>
       <c r="BF6" t="n">
-        <v>1710000</v>
+        <v>153048.992</v>
       </c>
       <c r="BG6" t="n">
-        <v>1596999.936</v>
+        <v>152324.992</v>
       </c>
       <c r="BH6" t="n">
-        <v>1704999.936</v>
+        <v>170187.008</v>
       </c>
       <c r="BI6" t="n">
-        <v>1775000.064</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>1748000</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>1751000.064</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>170187.008</v>
-      </c>
-      <c r="BM6" t="n">
         <v>158820.992</v>
       </c>
     </row>
@@ -1768,31 +1688,31 @@
         <v>17778</v>
       </c>
       <c r="D7" t="n">
-        <v>4018</v>
+        <v>20889</v>
       </c>
       <c r="E7" t="n">
-        <v>4700</v>
+        <v>23803</v>
       </c>
       <c r="F7" t="n">
-        <v>4814</v>
+        <v>31190</v>
       </c>
       <c r="G7" t="n">
-        <v>4419</v>
+        <v>37729</v>
       </c>
       <c r="H7" t="n">
-        <v>5507</v>
+        <v>48167</v>
       </c>
       <c r="I7" t="n">
-        <v>6291</v>
+        <v>46993</v>
       </c>
       <c r="J7" t="n">
-        <v>5813</v>
+        <v>50728</v>
       </c>
       <c r="K7" t="n">
-        <v>4841</v>
+        <v>46220</v>
       </c>
       <c r="L7" t="n">
-        <v>4769</v>
+        <v>51670</v>
       </c>
       <c r="M7" t="n">
         <v>55785</v>
@@ -1939,18 +1859,6 @@
         <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2140,18 +2048,6 @@
       <c r="BI8" t="n">
         <v>0</v>
       </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2190,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>50737</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -2319,36 +2215,24 @@
         <v>78206</v>
       </c>
       <c r="BC9" t="n">
-        <v>828000</v>
+        <v>74339</v>
       </c>
       <c r="BD9" t="n">
-        <v>820000</v>
+        <v>28847</v>
       </c>
       <c r="BE9" t="n">
-        <v>725000</v>
+        <v>35078</v>
       </c>
       <c r="BF9" t="n">
-        <v>678000</v>
+        <v>75741</v>
       </c>
       <c r="BG9" t="n">
-        <v>690000</v>
+        <v>113219</v>
       </c>
       <c r="BH9" t="n">
-        <v>671000</v>
+        <v>73690</v>
       </c>
       <c r="BI9" t="n">
-        <v>715000</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>751000</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>522000</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>73690</v>
-      </c>
-      <c r="BM9" t="n">
         <v>81853</v>
       </c>
     </row>
@@ -2389,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>5852</v>
+        <v>2734</v>
       </c>
       <c r="M10" t="n">
         <v>200</v>
@@ -2518,36 +2402,24 @@
         <v>4153</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>7163</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>6015</v>
       </c>
       <c r="BE10" t="n">
-        <v>0</v>
+        <v>5092</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>12311</v>
       </c>
       <c r="BG10" t="n">
-        <v>0</v>
+        <v>10383</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>9041</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>9041</v>
-      </c>
-      <c r="BM10" t="n">
         <v>9502</v>
       </c>
     </row>
@@ -2564,31 +2436,31 @@
         <v>219938</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>260411.008</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>237984</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>174888</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>213060.992</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>234255.008</v>
       </c>
       <c r="I11" t="n">
-        <v>97202</v>
+        <v>235036</v>
       </c>
       <c r="J11" t="n">
-        <v>62089</v>
+        <v>264892.992</v>
       </c>
       <c r="K11" t="n">
-        <v>79766</v>
+        <v>155055.008</v>
       </c>
       <c r="L11" t="n">
-        <v>83935</v>
+        <v>278976</v>
       </c>
       <c r="M11" t="n">
         <v>106270</v>
@@ -2717,36 +2589,24 @@
         <v>69667</v>
       </c>
       <c r="BC11" t="n">
-        <v>609000</v>
+        <v>321241.984</v>
       </c>
       <c r="BD11" t="n">
-        <v>734000</v>
+        <v>285054.016</v>
       </c>
       <c r="BE11" t="n">
-        <v>835000</v>
+        <v>275972</v>
       </c>
       <c r="BF11" t="n">
-        <v>708000</v>
+        <v>20452</v>
       </c>
       <c r="BG11" t="n">
-        <v>460000</v>
+        <v>18413</v>
       </c>
       <c r="BH11" t="n">
-        <v>366000</v>
+        <v>20918</v>
       </c>
       <c r="BI11" t="n">
-        <v>363000</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>529000</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>515000</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>20918</v>
-      </c>
-      <c r="BM11" t="n">
         <v>25930</v>
       </c>
     </row>
@@ -2763,31 +2623,31 @@
         <v>940065.024</v>
       </c>
       <c r="D12" t="n">
-        <v>800163.008</v>
+        <v>1387776</v>
       </c>
       <c r="E12" t="n">
-        <v>761068.032</v>
+        <v>1390861.056</v>
       </c>
       <c r="F12" t="n">
-        <v>765449.9840000001</v>
+        <v>1382093.952</v>
       </c>
       <c r="G12" t="n">
-        <v>778643.968</v>
+        <v>1418540.032</v>
       </c>
       <c r="H12" t="n">
-        <v>651947.008</v>
+        <v>1340704</v>
       </c>
       <c r="I12" t="n">
-        <v>1071721.024</v>
+        <v>1584547.968</v>
       </c>
       <c r="J12" t="n">
-        <v>948553.024</v>
+        <v>1479335.936</v>
       </c>
       <c r="K12" t="n">
-        <v>969897.024</v>
+        <v>1454306.944</v>
       </c>
       <c r="L12" t="n">
-        <v>1138743.04</v>
+        <v>1541140.992</v>
       </c>
       <c r="M12" t="n">
         <v>1515822.976</v>
@@ -2916,36 +2776,24 @@
         <v>5870753.792</v>
       </c>
       <c r="BC12" t="n">
-        <v>6353999.872</v>
+        <v>5830583.808</v>
       </c>
       <c r="BD12" t="n">
-        <v>6355999.744</v>
+        <v>5691356.16</v>
       </c>
       <c r="BE12" t="n">
-        <v>6558000.128</v>
+        <v>5712026.112</v>
       </c>
       <c r="BF12" t="n">
-        <v>6913999.872</v>
+        <v>3140252.928</v>
       </c>
       <c r="BG12" t="n">
-        <v>7031000.064</v>
+        <v>2809363.968</v>
       </c>
       <c r="BH12" t="n">
-        <v>7126000.128</v>
+        <v>2913074.944</v>
       </c>
       <c r="BI12" t="n">
-        <v>7322999.808</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>7354999.808</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>7743000.064</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>2913074.944</v>
-      </c>
-      <c r="BM12" t="n">
         <v>2933694.976</v>
       </c>
     </row>
@@ -3115,36 +2963,24 @@
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="BH13" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>31000</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>31000</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>32000</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3185,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>61564</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -3332,18 +3168,6 @@
         <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3360,31 +3184,31 @@
         <v>20405</v>
       </c>
       <c r="D15" t="n">
-        <v>800163.008</v>
+        <v>18177</v>
       </c>
       <c r="E15" t="n">
-        <v>761068.032</v>
+        <v>18652</v>
       </c>
       <c r="F15" t="n">
-        <v>765449.9840000001</v>
+        <v>21430</v>
       </c>
       <c r="G15" t="n">
-        <v>778643.968</v>
+        <v>19528</v>
       </c>
       <c r="H15" t="n">
-        <v>651947.008</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1071721.024</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>948553.024</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>969897.024</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500302.016</v>
+        <v>20399</v>
       </c>
       <c r="M15" t="n">
         <v>22197</v>
@@ -3531,18 +3355,6 @@
         <v>0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3712,36 +3524,24 @@
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>116000</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>112000</v>
+        <v>0</v>
       </c>
       <c r="BE16" t="n">
-        <v>108000</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>112000</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="BH16" t="n">
-        <v>102000</v>
+        <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>96000</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>100000</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>104000</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3911,13 +3711,13 @@
         <v>5918</v>
       </c>
       <c r="BC17" t="n">
-        <v>0</v>
+        <v>5967</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>6042</v>
       </c>
       <c r="BE17" t="n">
-        <v>0</v>
+        <v>6334</v>
       </c>
       <c r="BF17" t="n">
         <v>0</v>
@@ -3929,18 +3729,6 @@
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3981,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>173336.992</v>
+        <v>1101569.024</v>
       </c>
       <c r="M18" t="n">
         <v>1072227.968</v>
@@ -4128,18 +3916,6 @@
         <v>0</v>
       </c>
       <c r="BI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4309,36 +4085,24 @@
         <v>3908192</v>
       </c>
       <c r="BC19" t="n">
-        <v>20000</v>
+        <v>3647113.984</v>
       </c>
       <c r="BD19" t="n">
-        <v>18000</v>
+        <v>3408892.928</v>
       </c>
       <c r="BE19" t="n">
-        <v>2000</v>
+        <v>3416807.936</v>
       </c>
       <c r="BF19" t="n">
-        <v>60000</v>
+        <v>2922766.08</v>
       </c>
       <c r="BG19" t="n">
-        <v>94000</v>
+        <v>2601196.032</v>
       </c>
       <c r="BH19" t="n">
-        <v>7000</v>
+        <v>2698781.952</v>
       </c>
       <c r="BI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>18000</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>38000</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>2698781.952</v>
-      </c>
-      <c r="BM19" t="n">
         <v>2697331.968</v>
       </c>
     </row>
@@ -4528,18 +4292,6 @@
       <c r="BI20" t="n">
         <v>0</v>
       </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4554,31 +4306,31 @@
         <v>919660.032</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1369598.976</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1372209.024</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1360664.064</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1399011.968</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1340704</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1584547.968</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1479335.936</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1454306.944</v>
       </c>
       <c r="L21" t="n">
-        <v>403540</v>
+        <v>419172.992</v>
       </c>
       <c r="M21" t="n">
         <v>421398.016</v>
@@ -4710,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="BD21" t="n">
-        <v>0</v>
+        <v>341292</v>
       </c>
       <c r="BE21" t="n">
         <v>0</v>
@@ -4725,18 +4477,6 @@
         <v>0</v>
       </c>
       <c r="BI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
         <v>23345</v>
       </c>
     </row>
@@ -4753,31 +4493,31 @@
         <v>14722</v>
       </c>
       <c r="D22" t="n">
-        <v>103</v>
+        <v>8172</v>
       </c>
       <c r="E22" t="n">
-        <v>103</v>
+        <v>8172</v>
       </c>
       <c r="F22" t="n">
-        <v>103</v>
+        <v>8172</v>
       </c>
       <c r="G22" t="n">
-        <v>103</v>
+        <v>8172</v>
       </c>
       <c r="H22" t="n">
-        <v>1102</v>
+        <v>8172</v>
       </c>
       <c r="I22" t="n">
-        <v>1102</v>
+        <v>8172</v>
       </c>
       <c r="J22" t="n">
-        <v>114729</v>
+        <v>8172</v>
       </c>
       <c r="K22" t="n">
-        <v>123264</v>
+        <v>8172</v>
       </c>
       <c r="L22" t="n">
-        <v>1895</v>
+        <v>8172</v>
       </c>
       <c r="M22" t="n">
         <v>8172</v>
@@ -4924,18 +4664,6 @@
         <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4952,31 +4680,31 @@
         <v>17384284.16</v>
       </c>
       <c r="D23" t="n">
-        <v>1413719.04</v>
+        <v>14628519.936</v>
       </c>
       <c r="E23" t="n">
-        <v>1430727.04</v>
+        <v>14574724.096</v>
       </c>
       <c r="F23" t="n">
-        <v>1448601.984</v>
+        <v>14481114.112</v>
       </c>
       <c r="G23" t="n">
-        <v>1474966.016</v>
+        <v>14492379.136</v>
       </c>
       <c r="H23" t="n">
-        <v>1484642.048</v>
+        <v>14114186.24</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>17083169.792</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>16915888.128</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>16746054.656</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>16476849.152</v>
       </c>
       <c r="M23" t="n">
         <v>16329682.944</v>
@@ -5105,36 +4833,24 @@
         <v>5792443.904</v>
       </c>
       <c r="BC23" t="n">
-        <v>12000</v>
+        <v>5705828.864</v>
       </c>
       <c r="BD23" t="n">
-        <v>15000</v>
+        <v>5722423.808</v>
       </c>
       <c r="BE23" t="n">
-        <v>24000</v>
+        <v>5643577.856</v>
       </c>
       <c r="BF23" t="n">
-        <v>23000</v>
+        <v>6457843.2</v>
       </c>
       <c r="BG23" t="n">
-        <v>21000</v>
+        <v>7140531.2</v>
       </c>
       <c r="BH23" t="n">
-        <v>20000</v>
+        <v>7190453.248</v>
       </c>
       <c r="BI23" t="n">
-        <v>18000</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>11000</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>7190453.248</v>
-      </c>
-      <c r="BM23" t="n">
         <v>7141920.768</v>
       </c>
     </row>
@@ -5151,31 +4867,31 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>92037</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>99565</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>106168</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>118132</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>126308</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1565976.96</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1593634.048</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1614252.032</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1601859.968</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -5304,36 +5020,24 @@
         <v>1488450.048</v>
       </c>
       <c r="BC24" t="n">
-        <v>2452999.936</v>
+        <v>1937768.96</v>
       </c>
       <c r="BD24" t="n">
-        <v>2430000.128</v>
+        <v>1919064.96</v>
       </c>
       <c r="BE24" t="n">
-        <v>2392000</v>
+        <v>1892409.984</v>
       </c>
       <c r="BF24" t="n">
-        <v>2368000</v>
+        <v>1832130.944</v>
       </c>
       <c r="BG24" t="n">
-        <v>2376999.936</v>
+        <v>1776604.032</v>
       </c>
       <c r="BH24" t="n">
-        <v>2367000.064</v>
+        <v>1805788.032</v>
       </c>
       <c r="BI24" t="n">
-        <v>2336999.936</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>2328000</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>2321999.872</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>1805788.032</v>
-      </c>
-      <c r="BM24" t="n">
         <v>1791750.016</v>
       </c>
     </row>
@@ -5523,18 +5227,6 @@
       <c r="BI25" t="n">
         <v>0</v>
       </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5549,31 +5241,31 @@
         <v>19284187.136</v>
       </c>
       <c r="D26" t="n">
-        <v>3517570.048</v>
+        <v>17061183.488</v>
       </c>
       <c r="E26" t="n">
-        <v>3634429.952</v>
+        <v>17018720.256</v>
       </c>
       <c r="F26" t="n">
-        <v>3545306.112</v>
+        <v>16800123.904</v>
       </c>
       <c r="G26" t="n">
-        <v>3592280.064</v>
+        <v>16733919.232</v>
       </c>
       <c r="H26" t="n">
-        <v>3568293.888</v>
+        <v>16315138.048</v>
       </c>
       <c r="I26" t="n">
-        <v>3667716.096</v>
+        <v>19515588.608</v>
       </c>
       <c r="J26" t="n">
-        <v>3608472.064</v>
+        <v>19297531.904</v>
       </c>
       <c r="K26" t="n">
-        <v>3708272.896</v>
+        <v>19094050.816</v>
       </c>
       <c r="L26" t="n">
-        <v>3680215.04</v>
+        <v>18884003.84</v>
       </c>
       <c r="M26" t="n">
         <v>18649331.712</v>
@@ -5702,36 +5394,24 @@
         <v>14086168.576</v>
       </c>
       <c r="BC26" t="n">
-        <v>12238999.552</v>
+        <v>14537360.384</v>
       </c>
       <c r="BD26" t="n">
-        <v>12986000.384</v>
+        <v>14427182.08</v>
       </c>
       <c r="BE26" t="n">
-        <v>12912000</v>
+        <v>14405971.968</v>
       </c>
       <c r="BF26" t="n">
-        <v>13864999.936</v>
+        <v>16833598.464</v>
       </c>
       <c r="BG26" t="n">
-        <v>13434000.384</v>
+        <v>15016113.152</v>
       </c>
       <c r="BH26" t="n">
-        <v>13187000.32</v>
+        <v>13568181.248</v>
       </c>
       <c r="BI26" t="n">
-        <v>13075000.32</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>13637999.616</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>13347999.744</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>13568181.248</v>
-      </c>
-      <c r="BM26" t="n">
         <v>13706649.6</v>
       </c>
     </row>
@@ -5748,31 +5428,31 @@
         <v>1606738.944</v>
       </c>
       <c r="D27" t="n">
-        <v>904048</v>
+        <v>1806516.992</v>
       </c>
       <c r="E27" t="n">
-        <v>947732.992</v>
+        <v>1804510.976</v>
       </c>
       <c r="F27" t="n">
-        <v>782820.992</v>
+        <v>1903741.952</v>
       </c>
       <c r="G27" t="n">
-        <v>921987.968</v>
+        <v>1884583.936</v>
       </c>
       <c r="H27" t="n">
-        <v>928792</v>
+        <v>1610403.968</v>
       </c>
       <c r="I27" t="n">
-        <v>879326.0159999999</v>
+        <v>1308278.016</v>
       </c>
       <c r="J27" t="n">
-        <v>674208</v>
+        <v>1640025.984</v>
       </c>
       <c r="K27" t="n">
-        <v>964201.9840000001</v>
+        <v>1443164.032</v>
       </c>
       <c r="L27" t="n">
-        <v>903329.024</v>
+        <v>1583288.96</v>
       </c>
       <c r="M27" t="n">
         <v>1401922.048</v>
@@ -5901,36 +5581,24 @@
         <v>692926.0159999999</v>
       </c>
       <c r="BC27" t="n">
-        <v>3886000.128</v>
+        <v>774374.976</v>
       </c>
       <c r="BD27" t="n">
-        <v>3641999.872</v>
+        <v>1166589.056</v>
       </c>
       <c r="BE27" t="n">
-        <v>3063000.064</v>
+        <v>1021907.008</v>
       </c>
       <c r="BF27" t="n">
-        <v>2886000.128</v>
+        <v>3170190.08</v>
       </c>
       <c r="BG27" t="n">
-        <v>2388000</v>
+        <v>2253679.104</v>
       </c>
       <c r="BH27" t="n">
-        <v>2632000</v>
+        <v>537214.0159999999</v>
       </c>
       <c r="BI27" t="n">
-        <v>3076000</v>
-      </c>
-      <c r="BJ27" t="n">
-        <v>3392000</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>3512000</v>
-      </c>
-      <c r="BL27" t="n">
-        <v>537214.0159999999</v>
-      </c>
-      <c r="BM27" t="n">
         <v>488452.992</v>
       </c>
     </row>
@@ -5971,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>24378</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -6100,36 +5768,24 @@
         <v>0</v>
       </c>
       <c r="BC28" t="n">
-        <v>123000</v>
+        <v>0</v>
       </c>
       <c r="BD28" t="n">
-        <v>135000</v>
+        <v>0</v>
       </c>
       <c r="BE28" t="n">
-        <v>133000</v>
+        <v>0</v>
       </c>
       <c r="BF28" t="n">
-        <v>106000</v>
+        <v>0</v>
       </c>
       <c r="BG28" t="n">
-        <v>115000</v>
+        <v>0</v>
       </c>
       <c r="BH28" t="n">
-        <v>165000</v>
+        <v>15487</v>
       </c>
       <c r="BI28" t="n">
-        <v>159000</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>127000</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>134000</v>
-      </c>
-      <c r="BL28" t="n">
-        <v>15487</v>
-      </c>
-      <c r="BM28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6146,31 +5802,31 @@
         <v>99664</v>
       </c>
       <c r="D29" t="n">
-        <v>208158</v>
+        <v>109466</v>
       </c>
       <c r="E29" t="n">
-        <v>204184.992</v>
+        <v>101959</v>
       </c>
       <c r="F29" t="n">
-        <v>201668</v>
+        <v>96349</v>
       </c>
       <c r="G29" t="n">
-        <v>200624.992</v>
+        <v>29779</v>
       </c>
       <c r="H29" t="n">
-        <v>211372.992</v>
+        <v>39370</v>
       </c>
       <c r="I29" t="n">
-        <v>233614</v>
+        <v>41268</v>
       </c>
       <c r="J29" t="n">
-        <v>220627.008</v>
+        <v>56050</v>
       </c>
       <c r="K29" t="n">
-        <v>227736.992</v>
+        <v>30820</v>
       </c>
       <c r="L29" t="n">
-        <v>251188.992</v>
+        <v>68302</v>
       </c>
       <c r="M29" t="n">
         <v>38307</v>
@@ -6299,36 +5955,24 @@
         <v>110609</v>
       </c>
       <c r="BC29" t="n">
-        <v>1104999.936</v>
+        <v>180803.008</v>
       </c>
       <c r="BD29" t="n">
-        <v>1015000</v>
+        <v>141264</v>
       </c>
       <c r="BE29" t="n">
-        <v>804000</v>
+        <v>102259</v>
       </c>
       <c r="BF29" t="n">
-        <v>771000</v>
+        <v>352478.016</v>
       </c>
       <c r="BG29" t="n">
-        <v>756000</v>
+        <v>464534.016</v>
       </c>
       <c r="BH29" t="n">
-        <v>784000</v>
+        <v>164276</v>
       </c>
       <c r="BI29" t="n">
-        <v>817000</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>764000</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>843000</v>
-      </c>
-      <c r="BL29" t="n">
-        <v>164276</v>
-      </c>
-      <c r="BM29" t="n">
         <v>93674</v>
       </c>
     </row>
@@ -6345,31 +5989,31 @@
         <v>106320</v>
       </c>
       <c r="D30" t="n">
-        <v>153344</v>
+        <v>123784</v>
       </c>
       <c r="E30" t="n">
-        <v>193495.008</v>
+        <v>122902</v>
       </c>
       <c r="F30" t="n">
-        <v>180556.992</v>
+        <v>118904</v>
       </c>
       <c r="G30" t="n">
-        <v>166199.008</v>
+        <v>74662</v>
       </c>
       <c r="H30" t="n">
-        <v>164788.992</v>
+        <v>98641</v>
       </c>
       <c r="I30" t="n">
-        <v>126082</v>
+        <v>86767</v>
       </c>
       <c r="J30" t="n">
-        <v>127641</v>
+        <v>80889</v>
       </c>
       <c r="K30" t="n">
-        <v>118561</v>
+        <v>85834</v>
       </c>
       <c r="L30" t="n">
-        <v>106551</v>
+        <v>92827</v>
       </c>
       <c r="M30" t="n">
         <v>109160</v>
@@ -6498,13 +6142,13 @@
         <v>44736</v>
       </c>
       <c r="BC30" t="n">
-        <v>0</v>
+        <v>14949</v>
       </c>
       <c r="BD30" t="n">
-        <v>0</v>
+        <v>20528</v>
       </c>
       <c r="BE30" t="n">
-        <v>7000</v>
+        <v>32580</v>
       </c>
       <c r="BF30" t="n">
         <v>0</v>
@@ -6516,18 +6160,6 @@
         <v>0</v>
       </c>
       <c r="BI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,31 +6176,31 @@
         <v>284214.016</v>
       </c>
       <c r="D31" t="n">
-        <v>130135</v>
+        <v>340760.992</v>
       </c>
       <c r="E31" t="n">
-        <v>132278</v>
+        <v>316984</v>
       </c>
       <c r="F31" t="n">
-        <v>130010</v>
+        <v>280008.992</v>
       </c>
       <c r="G31" t="n">
-        <v>180808</v>
+        <v>233978</v>
       </c>
       <c r="H31" t="n">
-        <v>179688</v>
+        <v>277704.992</v>
       </c>
       <c r="I31" t="n">
-        <v>225629</v>
+        <v>250266</v>
       </c>
       <c r="J31" t="n">
-        <v>166797</v>
+        <v>605537.024</v>
       </c>
       <c r="K31" t="n">
-        <v>349525.008</v>
+        <v>548156.992</v>
       </c>
       <c r="L31" t="n">
-        <v>384278.016</v>
+        <v>572900.992</v>
       </c>
       <c r="M31" t="n">
         <v>382376</v>
@@ -6697,36 +6329,24 @@
         <v>21810</v>
       </c>
       <c r="BC31" t="n">
-        <v>1315000.064</v>
+        <v>10599</v>
       </c>
       <c r="BD31" t="n">
-        <v>1228999.936</v>
+        <v>99811</v>
       </c>
       <c r="BE31" t="n">
-        <v>1074000</v>
+        <v>89767</v>
       </c>
       <c r="BF31" t="n">
-        <v>1132999.936</v>
+        <v>99684</v>
       </c>
       <c r="BG31" t="n">
-        <v>690000</v>
+        <v>89531</v>
       </c>
       <c r="BH31" t="n">
-        <v>783000</v>
+        <v>101466</v>
       </c>
       <c r="BI31" t="n">
-        <v>1160000</v>
-      </c>
-      <c r="BJ31" t="n">
-        <v>1488000</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>1611000.064</v>
-      </c>
-      <c r="BL31" t="n">
-        <v>101466</v>
-      </c>
-      <c r="BM31" t="n">
         <v>87721</v>
       </c>
     </row>
@@ -6743,31 +6363,31 @@
         <v>93722</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>108299</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>109562</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>111118</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>96572</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>92885</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>96840</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>81482</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>81062</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>37283</v>
       </c>
       <c r="M32" t="n">
         <v>39331</v>
@@ -6914,18 +6534,6 @@
         <v>0</v>
       </c>
       <c r="BI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM32" t="n">
         <v>23052</v>
       </c>
     </row>
@@ -6942,31 +6550,31 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>220410</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>220356.992</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>86021</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>158800.992</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>179756</v>
+        <v>34618</v>
       </c>
       <c r="I33" t="n">
-        <v>179691.008</v>
+        <v>34618</v>
       </c>
       <c r="J33" t="n">
-        <v>21510</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>135312.992</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>21613</v>
+        <v>164731.008</v>
       </c>
       <c r="M33" t="n">
         <v>187895.008</v>
@@ -7095,36 +6703,24 @@
         <v>250444</v>
       </c>
       <c r="BC33" t="n">
-        <v>175000</v>
+        <v>290</v>
       </c>
       <c r="BD33" t="n">
-        <v>60000</v>
+        <v>389668</v>
       </c>
       <c r="BE33" t="n">
-        <v>60000</v>
+        <v>389668</v>
       </c>
       <c r="BF33" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="BG33" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="BH33" t="n">
-        <v>41000</v>
+        <v>273</v>
       </c>
       <c r="BI33" t="n">
-        <v>41000</v>
-      </c>
-      <c r="BJ33" t="n">
-        <v>7000</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>7000</v>
-      </c>
-      <c r="BL33" t="n">
-        <v>273</v>
-      </c>
-      <c r="BM33" t="n">
         <v>273</v>
       </c>
     </row>
@@ -7141,31 +6737,31 @@
         <v>848822.0159999999</v>
       </c>
       <c r="D34" t="n">
-        <v>186666</v>
+        <v>952833.9840000001</v>
       </c>
       <c r="E34" t="n">
-        <v>187406</v>
+        <v>986393.9840000001</v>
       </c>
       <c r="F34" t="n">
-        <v>173707.008</v>
+        <v>1146801.024</v>
       </c>
       <c r="G34" t="n">
-        <v>203864</v>
+        <v>1292226.944</v>
       </c>
       <c r="H34" t="n">
-        <v>183668</v>
+        <v>887844.992</v>
       </c>
       <c r="I34" t="n">
-        <v>103651</v>
+        <v>762636.992</v>
       </c>
       <c r="J34" t="n">
-        <v>125614</v>
+        <v>653265.9840000001</v>
       </c>
       <c r="K34" t="n">
-        <v>121706</v>
+        <v>555715.008</v>
       </c>
       <c r="L34" t="n">
-        <v>96358</v>
+        <v>647244.992</v>
       </c>
       <c r="M34" t="n">
         <v>644853.024</v>
@@ -7294,36 +6890,24 @@
         <v>265327.008</v>
       </c>
       <c r="BC34" t="n">
-        <v>1119000</v>
+        <v>567734</v>
       </c>
       <c r="BD34" t="n">
-        <v>1152000</v>
+        <v>515317.9840000001</v>
       </c>
       <c r="BE34" t="n">
-        <v>932000</v>
+        <v>407632.992</v>
       </c>
       <c r="BF34" t="n">
-        <v>818000</v>
+        <v>2718028.032</v>
       </c>
       <c r="BG34" t="n">
-        <v>772000</v>
+        <v>1699613.952</v>
       </c>
       <c r="BH34" t="n">
-        <v>806000</v>
+        <v>255711.992</v>
       </c>
       <c r="BI34" t="n">
-        <v>845000</v>
-      </c>
-      <c r="BJ34" t="n">
-        <v>955000</v>
-      </c>
-      <c r="BK34" t="n">
-        <v>859000</v>
-      </c>
-      <c r="BL34" t="n">
-        <v>255711.992</v>
-      </c>
-      <c r="BM34" t="n">
         <v>283733.016</v>
       </c>
     </row>
@@ -7340,31 +6924,31 @@
         <v>173996.992</v>
       </c>
       <c r="D35" t="n">
-        <v>5335</v>
+        <v>171372.992</v>
       </c>
       <c r="E35" t="n">
-        <v>10012</v>
+        <v>166710</v>
       </c>
       <c r="F35" t="n">
-        <v>10858</v>
+        <v>150560.992</v>
       </c>
       <c r="G35" t="n">
-        <v>11691</v>
+        <v>157366</v>
       </c>
       <c r="H35" t="n">
-        <v>9518</v>
+        <v>179340</v>
       </c>
       <c r="I35" t="n">
-        <v>10659</v>
+        <v>35882</v>
       </c>
       <c r="J35" t="n">
-        <v>12019</v>
+        <v>162800</v>
       </c>
       <c r="K35" t="n">
-        <v>11360</v>
+        <v>141574</v>
       </c>
       <c r="L35" t="n">
-        <v>18962</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -7493,36 +7077,24 @@
         <v>0</v>
       </c>
       <c r="BC35" t="n">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="BD35" t="n">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="BE35" t="n">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="BF35" t="n">
-        <v>56000</v>
+        <v>0</v>
       </c>
       <c r="BG35" t="n">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="BH35" t="n">
-        <v>53000</v>
+        <v>0</v>
       </c>
       <c r="BI35" t="n">
-        <v>54000</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>51000</v>
-      </c>
-      <c r="BK35" t="n">
-        <v>58000</v>
-      </c>
-      <c r="BL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7712,18 +7284,6 @@
       <c r="BI36" t="n">
         <v>0</v>
       </c>
-      <c r="BJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7738,31 +7298,31 @@
         <v>7377885.184</v>
       </c>
       <c r="D37" t="n">
-        <v>1305260.032</v>
+        <v>7350134.784</v>
       </c>
       <c r="E37" t="n">
-        <v>1268552.96</v>
+        <v>7200679.936</v>
       </c>
       <c r="F37" t="n">
-        <v>1259004.032</v>
+        <v>6213408.768</v>
       </c>
       <c r="G37" t="n">
-        <v>1235209.984</v>
+        <v>5946240</v>
       </c>
       <c r="H37" t="n">
-        <v>1226564.992</v>
+        <v>6182108.16</v>
       </c>
       <c r="I37" t="n">
-        <v>1342468.992</v>
+        <v>7582860.8</v>
       </c>
       <c r="J37" t="n">
-        <v>1392340.992</v>
+        <v>6979563.008</v>
       </c>
       <c r="K37" t="n">
-        <v>1262471.04</v>
+        <v>6888180.224</v>
       </c>
       <c r="L37" t="n">
-        <v>1225515.008</v>
+        <v>6825763.84</v>
       </c>
       <c r="M37" t="n">
         <v>6736466.944</v>
@@ -7891,36 +7451,24 @@
         <v>6311753.216</v>
       </c>
       <c r="BC37" t="n">
-        <v>6463000.064</v>
+        <v>6277716.992</v>
       </c>
       <c r="BD37" t="n">
-        <v>7512000</v>
+        <v>5677030.912</v>
       </c>
       <c r="BE37" t="n">
-        <v>7958000.128</v>
+        <v>5800616.96</v>
       </c>
       <c r="BF37" t="n">
-        <v>9495000.063999999</v>
+        <v>4636471.808</v>
       </c>
       <c r="BG37" t="n">
-        <v>9626000.384</v>
+        <v>4653764.096</v>
       </c>
       <c r="BH37" t="n">
-        <v>9011999.744000001</v>
+        <v>5069780.992</v>
       </c>
       <c r="BI37" t="n">
-        <v>8402999.808</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>8718999.551999999</v>
-      </c>
-      <c r="BK37" t="n">
-        <v>8345999.872</v>
-      </c>
-      <c r="BL37" t="n">
-        <v>5069780.992</v>
-      </c>
-      <c r="BM37" t="n">
         <v>5241190.912</v>
       </c>
     </row>
@@ -7937,31 +7485,31 @@
         <v>3171886.08</v>
       </c>
       <c r="D38" t="n">
-        <v>1031097.024</v>
+        <v>3555086.08</v>
       </c>
       <c r="E38" t="n">
-        <v>1013166.016</v>
+        <v>3495273.984</v>
       </c>
       <c r="F38" t="n">
-        <v>1001091.008</v>
+        <v>3032100.096</v>
       </c>
       <c r="G38" t="n">
-        <v>957270.976</v>
+        <v>2845479.936</v>
       </c>
       <c r="H38" t="n">
-        <v>961579.9680000001</v>
+        <v>2738053.12</v>
       </c>
       <c r="I38" t="n">
-        <v>890600</v>
+        <v>2754607.104</v>
       </c>
       <c r="J38" t="n">
-        <v>947452.992</v>
+        <v>2378531.072</v>
       </c>
       <c r="K38" t="n">
-        <v>795227.008</v>
+        <v>2281636.096</v>
       </c>
       <c r="L38" t="n">
-        <v>783444.992</v>
+        <v>2197143.04</v>
       </c>
       <c r="M38" t="n">
         <v>2171290.112</v>
@@ -8090,36 +7638,24 @@
         <v>1878610.048</v>
       </c>
       <c r="BC38" t="n">
-        <v>4399000.064</v>
+        <v>1918609.024</v>
       </c>
       <c r="BD38" t="n">
-        <v>5477000.192</v>
+        <v>1901569.024</v>
       </c>
       <c r="BE38" t="n">
-        <v>5368999.936</v>
+        <v>1942473.984</v>
       </c>
       <c r="BF38" t="n">
-        <v>6753999.872</v>
+        <v>2213137.92</v>
       </c>
       <c r="BG38" t="n">
-        <v>6977999.872</v>
+        <v>2223784.96</v>
       </c>
       <c r="BH38" t="n">
-        <v>6709000.192</v>
+        <v>2336379.904</v>
       </c>
       <c r="BI38" t="n">
-        <v>6291999.744</v>
-      </c>
-      <c r="BJ38" t="n">
-        <v>6400999.936</v>
-      </c>
-      <c r="BK38" t="n">
-        <v>6158000.128</v>
-      </c>
-      <c r="BL38" t="n">
-        <v>2336379.904</v>
-      </c>
-      <c r="BM38" t="n">
         <v>2475113.984</v>
       </c>
     </row>
@@ -8136,31 +7672,31 @@
         <v>304304.992</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>397048</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>375310.016</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>309044.992</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>281891.008</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>200622</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>192568.992</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196228</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>148692.992</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>135968</v>
       </c>
       <c r="M39" t="n">
         <v>128711</v>
@@ -8307,18 +7843,6 @@
         <v>0</v>
       </c>
       <c r="BI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM39" t="n">
         <v>29478</v>
       </c>
     </row>
@@ -8335,31 +7859,31 @@
         <v>2794782.976</v>
       </c>
       <c r="D40" t="n">
-        <v>264030</v>
+        <v>2449952</v>
       </c>
       <c r="E40" t="n">
-        <v>248140</v>
+        <v>2326081.024</v>
       </c>
       <c r="F40" t="n">
-        <v>253516</v>
+        <v>1870139.008</v>
       </c>
       <c r="G40" t="n">
-        <v>268428.992</v>
+        <v>1712905.984</v>
       </c>
       <c r="H40" t="n">
-        <v>252170</v>
+        <v>1938781.056</v>
       </c>
       <c r="I40" t="n">
-        <v>418896</v>
+        <v>3071143.936</v>
       </c>
       <c r="J40" t="n">
-        <v>403732.992</v>
+        <v>2773690.112</v>
       </c>
       <c r="K40" t="n">
-        <v>419409.984</v>
+        <v>2720080.896</v>
       </c>
       <c r="L40" t="n">
-        <v>62354</v>
+        <v>3064486.912</v>
       </c>
       <c r="M40" t="n">
         <v>3054707.968</v>
@@ -8488,36 +8012,24 @@
         <v>2789413.12</v>
       </c>
       <c r="BC40" t="n">
-        <v>1926000</v>
+        <v>3034266.88</v>
       </c>
       <c r="BD40" t="n">
-        <v>1879000.064</v>
+        <v>2446102.016</v>
       </c>
       <c r="BE40" t="n">
-        <v>2422000.128</v>
+        <v>2466791.936</v>
       </c>
       <c r="BF40" t="n">
-        <v>2574000.128</v>
+        <v>1568737.024</v>
       </c>
       <c r="BG40" t="n">
-        <v>2470000.128</v>
+        <v>1564497.024</v>
       </c>
       <c r="BH40" t="n">
-        <v>2124000</v>
+        <v>1858027.008</v>
       </c>
       <c r="BI40" t="n">
-        <v>1899000.064</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>2111000.064</v>
-      </c>
-      <c r="BK40" t="n">
-        <v>1982000</v>
-      </c>
-      <c r="BL40" t="n">
-        <v>1858027.008</v>
-      </c>
-      <c r="BM40" t="n">
         <v>1857564.032</v>
       </c>
     </row>
@@ -8558,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>41879</v>
+        <v>1428166.016</v>
       </c>
       <c r="M41" t="n">
         <v>1381757.952</v>
@@ -8705,18 +8217,6 @@
         <v>0</v>
       </c>
       <c r="BI41" t="n">
-        <v>19000</v>
-      </c>
-      <c r="BJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM41" t="n">
         <v>7885</v>
       </c>
     </row>
@@ -8906,18 +8406,6 @@
       <c r="BI42" t="n">
         <v>0</v>
       </c>
-      <c r="BJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8932,31 +8420,31 @@
         <v>1106910.976</v>
       </c>
       <c r="D43" t="n">
-        <v>10133</v>
+        <v>948049.024</v>
       </c>
       <c r="E43" t="n">
-        <v>7247</v>
+        <v>1004014.976</v>
       </c>
       <c r="F43" t="n">
-        <v>4397</v>
+        <v>1002124.992</v>
       </c>
       <c r="G43" t="n">
-        <v>9510</v>
+        <v>1105963.008</v>
       </c>
       <c r="H43" t="n">
-        <v>12815</v>
+        <v>1304652.032</v>
       </c>
       <c r="I43" t="n">
-        <v>32973</v>
+        <v>1564541.056</v>
       </c>
       <c r="J43" t="n">
-        <v>41155</v>
+        <v>1631113.984</v>
       </c>
       <c r="K43" t="n">
-        <v>47834</v>
+        <v>1737769.984</v>
       </c>
       <c r="L43" t="n">
-        <v>337836.992</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -9085,36 +8573,24 @@
         <v>1643730.048</v>
       </c>
       <c r="BC43" t="n">
-        <v>138000</v>
+        <v>1324840.96</v>
       </c>
       <c r="BD43" t="n">
-        <v>156000</v>
+        <v>1329360</v>
       </c>
       <c r="BE43" t="n">
-        <v>167000</v>
+        <v>1391351.04</v>
       </c>
       <c r="BF43" t="n">
-        <v>167000</v>
+        <v>854596.992</v>
       </c>
       <c r="BG43" t="n">
-        <v>178000</v>
+        <v>865481.9840000001</v>
       </c>
       <c r="BH43" t="n">
-        <v>179000</v>
+        <v>875374.0159999999</v>
       </c>
       <c r="BI43" t="n">
-        <v>193000</v>
-      </c>
-      <c r="BJ43" t="n">
-        <v>207000</v>
-      </c>
-      <c r="BK43" t="n">
-        <v>206000</v>
-      </c>
-      <c r="BL43" t="n">
-        <v>875374.0159999999</v>
-      </c>
-      <c r="BM43" t="n">
         <v>871150.0159999999</v>
       </c>
     </row>
@@ -9304,18 +8780,6 @@
       <c r="BI44" t="n">
         <v>0</v>
       </c>
-      <c r="BJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9503,18 +8967,6 @@
       <c r="BI45" t="n">
         <v>0</v>
       </c>
-      <c r="BJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9702,18 +9154,6 @@
       <c r="BI46" t="n">
         <v>0</v>
       </c>
-      <c r="BJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9728,31 +9168,31 @@
         <v>10299564.032</v>
       </c>
       <c r="D47" t="n">
-        <v>1308262.016</v>
+        <v>7904530.944</v>
       </c>
       <c r="E47" t="n">
-        <v>1418144</v>
+        <v>8013528.064</v>
       </c>
       <c r="F47" t="n">
-        <v>1503480.96</v>
+        <v>8682973.184</v>
       </c>
       <c r="G47" t="n">
-        <v>1435081.984</v>
+        <v>8903095.296</v>
       </c>
       <c r="H47" t="n">
-        <v>1412936.96</v>
+        <v>8522626.048</v>
       </c>
       <c r="I47" t="n">
-        <v>1445921.024</v>
+        <v>10624448.512</v>
       </c>
       <c r="J47" t="n">
-        <v>1541922.944</v>
+        <v>10677942.272</v>
       </c>
       <c r="K47" t="n">
-        <v>1481600</v>
+        <v>10762705.92</v>
       </c>
       <c r="L47" t="n">
-        <v>1551371.008</v>
+        <v>10474950.656</v>
       </c>
       <c r="M47" t="n">
         <v>10510942.208</v>
@@ -9881,36 +9321,24 @@
         <v>7081489.92</v>
       </c>
       <c r="BC47" t="n">
-        <v>1890000</v>
+        <v>7485267.968</v>
       </c>
       <c r="BD47" t="n">
-        <v>1832000</v>
+        <v>7583562.24</v>
       </c>
       <c r="BE47" t="n">
-        <v>1891000.064</v>
+        <v>7583448.064</v>
       </c>
       <c r="BF47" t="n">
-        <v>1484000</v>
+        <v>9026935.808</v>
       </c>
       <c r="BG47" t="n">
-        <v>1420000</v>
+        <v>8108669.952</v>
       </c>
       <c r="BH47" t="n">
-        <v>1543000.064</v>
+        <v>7961185.792</v>
       </c>
       <c r="BI47" t="n">
-        <v>1596000</v>
-      </c>
-      <c r="BJ47" t="n">
-        <v>1527000.064</v>
-      </c>
-      <c r="BK47" t="n">
-        <v>1490000</v>
-      </c>
-      <c r="BL47" t="n">
-        <v>7961185.792</v>
-      </c>
-      <c r="BM47" t="n">
         <v>7977006.08</v>
       </c>
     </row>
@@ -9927,31 +9355,31 @@
         <v>5975433.216</v>
       </c>
       <c r="D48" t="n">
-        <v>590174.0159999999</v>
+        <v>5975433.216</v>
       </c>
       <c r="E48" t="n">
-        <v>590174.0159999999</v>
+        <v>5975433.216</v>
       </c>
       <c r="F48" t="n">
-        <v>590174.0159999999</v>
+        <v>5975433.216</v>
       </c>
       <c r="G48" t="n">
-        <v>590174.0159999999</v>
+        <v>5975433.216</v>
       </c>
       <c r="H48" t="n">
-        <v>590174.0159999999</v>
+        <v>5975433.216</v>
       </c>
       <c r="I48" t="n">
-        <v>590174.0159999999</v>
+        <v>5975433.216</v>
       </c>
       <c r="J48" t="n">
-        <v>590174.0159999999</v>
+        <v>5975433.216</v>
       </c>
       <c r="K48" t="n">
-        <v>590174.0159999999</v>
+        <v>5975433.216</v>
       </c>
       <c r="L48" t="n">
-        <v>590174.0159999999</v>
+        <v>5975433.216</v>
       </c>
       <c r="M48" t="n">
         <v>5975433.216</v>
@@ -10080,36 +9508,24 @@
         <v>5975433.216</v>
       </c>
       <c r="BC48" t="n">
-        <v>663000</v>
+        <v>5975433.216</v>
       </c>
       <c r="BD48" t="n">
-        <v>663000</v>
+        <v>5975433.216</v>
       </c>
       <c r="BE48" t="n">
-        <v>663000</v>
+        <v>5975433.216</v>
       </c>
       <c r="BF48" t="n">
-        <v>663000</v>
+        <v>6471507.968</v>
       </c>
       <c r="BG48" t="n">
-        <v>663000</v>
+        <v>6471507.968</v>
       </c>
       <c r="BH48" t="n">
-        <v>663000</v>
+        <v>6471507.968</v>
       </c>
       <c r="BI48" t="n">
-        <v>663000</v>
-      </c>
-      <c r="BJ48" t="n">
-        <v>663000</v>
-      </c>
-      <c r="BK48" t="n">
-        <v>663000</v>
-      </c>
-      <c r="BL48" t="n">
-        <v>6471507.968</v>
-      </c>
-      <c r="BM48" t="n">
         <v>6471507.968</v>
       </c>
     </row>
@@ -10126,31 +9542,31 @@
         <v>4349620.224</v>
       </c>
       <c r="D49" t="n">
-        <v>558080</v>
+        <v>1929097.984</v>
       </c>
       <c r="E49" t="n">
-        <v>558080</v>
+        <v>1929097.984</v>
       </c>
       <c r="F49" t="n">
-        <v>558080</v>
+        <v>1929097.984</v>
       </c>
       <c r="G49" t="n">
-        <v>558080</v>
+        <v>1929097.984</v>
       </c>
       <c r="H49" t="n">
-        <v>558080</v>
+        <v>1929097.984</v>
       </c>
       <c r="I49" t="n">
-        <v>558081.024</v>
+        <v>1929097.984</v>
       </c>
       <c r="J49" t="n">
-        <v>558080</v>
+        <v>1929097.984</v>
       </c>
       <c r="K49" t="n">
-        <v>558080</v>
+        <v>1929097.984</v>
       </c>
       <c r="L49" t="n">
-        <v>558080</v>
+        <v>1929097.984</v>
       </c>
       <c r="M49" t="n">
         <v>1929097.984</v>
@@ -10279,36 +9695,24 @@
         <v>1929097.984</v>
       </c>
       <c r="BC49" t="n">
-        <v>485000</v>
+        <v>1929097.984</v>
       </c>
       <c r="BD49" t="n">
-        <v>485000</v>
+        <v>1929097.984</v>
       </c>
       <c r="BE49" t="n">
-        <v>485000</v>
+        <v>1929097.984</v>
       </c>
       <c r="BF49" t="n">
-        <v>485000</v>
+        <v>1929097.984</v>
       </c>
       <c r="BG49" t="n">
-        <v>485000</v>
+        <v>1925766.016</v>
       </c>
       <c r="BH49" t="n">
-        <v>446000</v>
+        <v>1925766.016</v>
       </c>
       <c r="BI49" t="n">
-        <v>446000</v>
-      </c>
-      <c r="BJ49" t="n">
-        <v>446000</v>
-      </c>
-      <c r="BK49" t="n">
-        <v>446000</v>
-      </c>
-      <c r="BL49" t="n">
-        <v>1925766.016</v>
-      </c>
-      <c r="BM49" t="n">
         <v>1925766.016</v>
       </c>
     </row>
@@ -10498,18 +9902,6 @@
       <c r="BI50" t="n">
         <v>0</v>
       </c>
-      <c r="BJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10524,31 +9916,31 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>160008</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>160008</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>160008.992</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>160008.992</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>264683.008</v>
+        <v>618094.976</v>
       </c>
       <c r="I51" t="n">
-        <v>264683.008</v>
+        <v>618094.976</v>
       </c>
       <c r="J51" t="n">
-        <v>264683.008</v>
+        <v>618094.976</v>
       </c>
       <c r="K51" t="n">
-        <v>264684</v>
+        <v>618094.976</v>
       </c>
       <c r="L51" t="n">
-        <v>396273.984</v>
+        <v>622747.008</v>
       </c>
       <c r="M51" t="n">
         <v>622747.008</v>
@@ -10677,36 +10069,24 @@
         <v>1931289.984</v>
       </c>
       <c r="BC51" t="n">
-        <v>400000</v>
+        <v>1931289.984</v>
       </c>
       <c r="BD51" t="n">
-        <v>676000</v>
+        <v>1953331.968</v>
       </c>
       <c r="BE51" t="n">
-        <v>676000</v>
+        <v>1953331.968</v>
       </c>
       <c r="BF51" t="n">
-        <v>421000</v>
+        <v>2653720.064</v>
       </c>
       <c r="BG51" t="n">
-        <v>421000</v>
+        <v>1729795.968</v>
       </c>
       <c r="BH51" t="n">
-        <v>533000</v>
+        <v>1774584.064</v>
       </c>
       <c r="BI51" t="n">
-        <v>533000</v>
-      </c>
-      <c r="BJ51" t="n">
-        <v>533000</v>
-      </c>
-      <c r="BK51" t="n">
-        <v>533000</v>
-      </c>
-      <c r="BL51" t="n">
-        <v>1774584.064</v>
-      </c>
-      <c r="BM51" t="n">
         <v>1774584.064</v>
       </c>
     </row>
@@ -10726,25 +10106,25 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>109882</v>
+        <v>108997</v>
       </c>
       <c r="F52" t="n">
-        <v>195218</v>
+        <v>778441.9840000001</v>
       </c>
       <c r="G52" t="n">
-        <v>126819</v>
+        <v>998563.968</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>32130</v>
+        <v>4816</v>
       </c>
       <c r="J52" t="n">
-        <v>126009</v>
+        <v>108088</v>
       </c>
       <c r="K52" t="n">
-        <v>64175</v>
+        <v>242630</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -10876,36 +10256,24 @@
         <v>83084</v>
       </c>
       <c r="BC52" t="n">
-        <v>317000</v>
+        <v>471224</v>
       </c>
       <c r="BD52" t="n">
         <v>0</v>
       </c>
       <c r="BE52" t="n">
-        <v>83000</v>
+        <v>-7851</v>
       </c>
       <c r="BF52" t="n">
-        <v>97000</v>
+        <v>0</v>
       </c>
       <c r="BG52" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="BH52" t="n">
         <v>0</v>
       </c>
       <c r="BI52" t="n">
-        <v>41000</v>
-      </c>
-      <c r="BJ52" t="n">
-        <v>18000</v>
-      </c>
-      <c r="BK52" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="BL52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM52" t="n">
         <v>6895</v>
       </c>
     </row>
@@ -10937,16 +10305,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>853</v>
+        <v>2097005.952</v>
       </c>
       <c r="J53" t="n">
-        <v>2977</v>
+        <v>2047228.032</v>
       </c>
       <c r="K53" t="n">
-        <v>4487</v>
+        <v>1997449.984</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1947672.96</v>
       </c>
       <c r="M53" t="n">
         <v>1897812.992</v>
@@ -11075,36 +10443,24 @@
         <v>-905073.024</v>
       </c>
       <c r="BC53" t="n">
-        <v>0</v>
+        <v>-897889.9840000001</v>
       </c>
       <c r="BD53" t="n">
-        <v>0</v>
+        <v>-890254.0159999999</v>
       </c>
       <c r="BE53" t="n">
-        <v>0</v>
+        <v>-882516.992</v>
       </c>
       <c r="BF53" t="n">
-        <v>0</v>
+        <v>-2027389.952</v>
       </c>
       <c r="BG53" t="n">
-        <v>0</v>
+        <v>-2018400</v>
       </c>
       <c r="BH53" t="n">
-        <v>0</v>
+        <v>-2210672.128</v>
       </c>
       <c r="BI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL53" t="n">
-        <v>-2210672.128</v>
-      </c>
-      <c r="BM53" t="n">
         <v>-2201746.944</v>
       </c>
     </row>
@@ -11294,18 +10650,6 @@
       <c r="BI54" t="n">
         <v>0</v>
       </c>
-      <c r="BJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11344,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>6843</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -11473,36 +10817,24 @@
         <v>-1932342.016</v>
       </c>
       <c r="BC55" t="n">
-        <v>25000</v>
+        <v>-1923886.976</v>
       </c>
       <c r="BD55" t="n">
-        <v>8000</v>
+        <v>-1384046.976</v>
       </c>
       <c r="BE55" t="n">
-        <v>-16000</v>
+        <v>-1384046.976</v>
       </c>
       <c r="BF55" t="n">
-        <v>-182000</v>
+        <v>0</v>
       </c>
       <c r="BG55" t="n">
-        <v>-209000</v>
+        <v>0</v>
       </c>
       <c r="BH55" t="n">
-        <v>-99000</v>
+        <v>0</v>
       </c>
       <c r="BI55" t="n">
-        <v>-87000</v>
-      </c>
-      <c r="BJ55" t="n">
-        <v>-133000</v>
-      </c>
-      <c r="BK55" t="n">
-        <v>-117000</v>
-      </c>
-      <c r="BL55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11692,18 +11024,6 @@
       <c r="BI56" t="n">
         <v>0</v>
       </c>
-      <c r="BJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11718,25 +11038,25 @@
         <v>769083.904</v>
       </c>
       <c r="D57" t="n">
-        <v>976254.0159999999</v>
+        <v>802753.9840000001</v>
       </c>
       <c r="E57" t="n">
-        <v>905428.992</v>
+        <v>776166.0159999999</v>
       </c>
       <c r="F57" t="n">
-        <v>906843.008</v>
+        <v>739057.9840000001</v>
       </c>
       <c r="G57" t="n">
-        <v>1023222.08</v>
+        <v>766083.968</v>
       </c>
       <c r="H57" t="n">
-        <v>1085032.96</v>
+        <v>793862.976</v>
       </c>
       <c r="I57" t="n">
-        <v>1070380.032</v>
+        <v>786947.968</v>
       </c>
       <c r="J57" t="n">
-        <v>956819.008</v>
+        <v>861516.992</v>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -11789,10 +11109,6 @@
       <c r="BG57" t="inlineStr"/>
       <c r="BH57" t="inlineStr"/>
       <c r="BI57" t="inlineStr"/>
-      <c r="BJ57" t="inlineStr"/>
-      <c r="BK57" t="inlineStr"/>
-      <c r="BL57" t="inlineStr"/>
-      <c r="BM57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11807,25 +11123,25 @@
         <v>-137140</v>
       </c>
       <c r="D58" t="n">
-        <v>-328753.984</v>
+        <v>-133557</v>
       </c>
       <c r="E58" t="n">
-        <v>-310390.016</v>
+        <v>-118453</v>
       </c>
       <c r="F58" t="n">
-        <v>-313919.008</v>
+        <v>-93718</v>
       </c>
       <c r="G58" t="n">
-        <v>-357384.992</v>
+        <v>-85527.008</v>
       </c>
       <c r="H58" t="n">
-        <v>-350225.984</v>
+        <v>-98138</v>
       </c>
       <c r="I58" t="n">
-        <v>-356164</v>
+        <v>-98535</v>
       </c>
       <c r="J58" t="n">
-        <v>-323460.992</v>
+        <v>-104413</v>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -11878,10 +11194,6 @@
       <c r="BG58" t="inlineStr"/>
       <c r="BH58" t="inlineStr"/>
       <c r="BI58" t="inlineStr"/>
-      <c r="BJ58" t="inlineStr"/>
-      <c r="BK58" t="inlineStr"/>
-      <c r="BL58" t="inlineStr"/>
-      <c r="BM58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11896,31 +11208,31 @@
         <v>631944.064</v>
       </c>
       <c r="D59" t="n">
-        <v>647500.032</v>
+        <v>669196.992</v>
       </c>
       <c r="E59" t="n">
-        <v>595038.976</v>
+        <v>657713.024</v>
       </c>
       <c r="F59" t="n">
-        <v>592924.032</v>
+        <v>645340.032</v>
       </c>
       <c r="G59" t="n">
-        <v>665836.928</v>
+        <v>680556.8639999999</v>
       </c>
       <c r="H59" t="n">
-        <v>734806.976</v>
+        <v>695724.992</v>
       </c>
       <c r="I59" t="n">
-        <v>714216</v>
+        <v>688412.992</v>
       </c>
       <c r="J59" t="n">
-        <v>633358.0159999999</v>
+        <v>757104</v>
       </c>
       <c r="K59" t="n">
-        <v>777686.08</v>
+        <v>764085.12</v>
       </c>
       <c r="L59" t="n">
-        <v>696329.9840000001</v>
+        <v>726289.024</v>
       </c>
       <c r="M59" t="n">
         <v>726289.024</v>
@@ -12049,36 +11361,22 @@
         <v>525163.008</v>
       </c>
       <c r="BC59" t="n">
-        <v>2191999.744</v>
+        <v>638702.08</v>
       </c>
       <c r="BD59" t="n">
-        <v>2000999.936</v>
+        <v>581048</v>
       </c>
       <c r="BE59" t="n">
-        <v>1923000.064</v>
+        <v>336876.992</v>
       </c>
       <c r="BF59" t="n">
-        <v>1872999.936</v>
-      </c>
-      <c r="BG59" t="n">
-        <v>2133999.872</v>
-      </c>
+        <v>341328</v>
+      </c>
+      <c r="BG59" t="inlineStr"/>
       <c r="BH59" t="n">
-        <v>2203000.064</v>
+        <v>360094.016</v>
       </c>
       <c r="BI59" t="n">
-        <v>2056999.936</v>
-      </c>
-      <c r="BJ59" t="n">
-        <v>2028000</v>
-      </c>
-      <c r="BK59" t="n">
-        <v>2184999.936</v>
-      </c>
-      <c r="BL59" t="n">
-        <v>360094.016</v>
-      </c>
-      <c r="BM59" t="n">
         <v>349404.992</v>
       </c>
     </row>
@@ -12095,31 +11393,31 @@
         <v>-99320.96000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>-446662.016</v>
+        <v>-326300.992</v>
       </c>
       <c r="E60" t="n">
-        <v>-392716</v>
+        <v>-277830.016</v>
       </c>
       <c r="F60" t="n">
-        <v>-425139.008</v>
+        <v>-336644.992</v>
       </c>
       <c r="G60" t="n">
-        <v>-449351.008</v>
+        <v>-24468.032</v>
       </c>
       <c r="H60" t="n">
-        <v>-472160.992</v>
+        <v>-447008.992</v>
       </c>
       <c r="I60" t="n">
-        <v>-464676</v>
+        <v>-446472</v>
       </c>
       <c r="J60" t="n">
-        <v>-489964.992</v>
+        <v>-443425.984</v>
       </c>
       <c r="K60" t="n">
-        <v>-588134.08</v>
+        <v>-58100</v>
       </c>
       <c r="L60" t="n">
-        <v>-519585.984</v>
+        <v>-416846.016</v>
       </c>
       <c r="M60" t="n">
         <v>-416846.016</v>
@@ -12248,36 +11546,22 @@
         <v>-343278.016</v>
       </c>
       <c r="BC60" t="n">
-        <v>-1837000.064</v>
+        <v>-527279.008</v>
       </c>
       <c r="BD60" t="n">
-        <v>-1571000.064</v>
+        <v>-381867.008</v>
       </c>
       <c r="BE60" t="n">
-        <v>-1542000</v>
+        <v>-204724</v>
       </c>
       <c r="BF60" t="n">
-        <v>-1607000.064</v>
-      </c>
-      <c r="BG60" t="n">
-        <v>-1654000</v>
-      </c>
+        <v>-217228</v>
+      </c>
+      <c r="BG60" t="inlineStr"/>
       <c r="BH60" t="n">
-        <v>-1724999.936</v>
+        <v>-218234</v>
       </c>
       <c r="BI60" t="n">
-        <v>-1644999.936</v>
-      </c>
-      <c r="BJ60" t="n">
-        <v>-1711000.064</v>
-      </c>
-      <c r="BK60" t="n">
-        <v>-1727000.064</v>
-      </c>
-      <c r="BL60" t="n">
-        <v>-218234</v>
-      </c>
-      <c r="BM60" t="n">
         <v>-229296</v>
       </c>
     </row>
@@ -12294,31 +11578,31 @@
         <v>532622.944</v>
       </c>
       <c r="D61" t="n">
-        <v>200838</v>
+        <v>342896</v>
       </c>
       <c r="E61" t="n">
-        <v>202323.008</v>
+        <v>379883.008</v>
       </c>
       <c r="F61" t="n">
-        <v>167784.992</v>
+        <v>308695.008</v>
       </c>
       <c r="G61" t="n">
-        <v>216486</v>
+        <v>656088.96</v>
       </c>
       <c r="H61" t="n">
-        <v>262646</v>
+        <v>248716</v>
       </c>
       <c r="I61" t="n">
-        <v>249540</v>
+        <v>241940.992</v>
       </c>
       <c r="J61" t="n">
-        <v>143392.992</v>
+        <v>313678.016</v>
       </c>
       <c r="K61" t="n">
-        <v>189552.016</v>
+        <v>705985.024</v>
       </c>
       <c r="L61" t="n">
-        <v>176744</v>
+        <v>309443.008</v>
       </c>
       <c r="M61" t="n">
         <v>309443.008</v>
@@ -12447,36 +11731,22 @@
         <v>181884.992</v>
       </c>
       <c r="BC61" t="n">
-        <v>355000</v>
+        <v>111423.04</v>
       </c>
       <c r="BD61" t="n">
-        <v>430000</v>
+        <v>199180.992</v>
       </c>
       <c r="BE61" t="n">
-        <v>381000</v>
+        <v>132153</v>
       </c>
       <c r="BF61" t="n">
-        <v>266000</v>
-      </c>
-      <c r="BG61" t="n">
-        <v>479999.936</v>
-      </c>
+        <v>124100</v>
+      </c>
+      <c r="BG61" t="inlineStr"/>
       <c r="BH61" t="n">
-        <v>478000</v>
+        <v>141860</v>
       </c>
       <c r="BI61" t="n">
-        <v>412000</v>
-      </c>
-      <c r="BJ61" t="n">
-        <v>317000</v>
-      </c>
-      <c r="BK61" t="n">
-        <v>457999.936</v>
-      </c>
-      <c r="BL61" t="n">
-        <v>141860</v>
-      </c>
-      <c r="BM61" t="n">
         <v>120109</v>
       </c>
     </row>
@@ -12493,31 +11763,31 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-23578</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>-22980</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>-22492</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-17257</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>-23603</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-22841</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-32850</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>-33835</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>-26407</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -12646,36 +11916,22 @@
         <v>0</v>
       </c>
       <c r="BC62" t="n">
-        <v>-20000</v>
+        <v>0</v>
       </c>
       <c r="BD62" t="n">
-        <v>-18000</v>
+        <v>0</v>
       </c>
       <c r="BE62" t="n">
-        <v>-19000</v>
+        <v>0</v>
       </c>
       <c r="BF62" t="n">
-        <v>-19000</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>-20000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BG62" t="inlineStr"/>
       <c r="BH62" t="n">
-        <v>-18000</v>
+        <v>0</v>
       </c>
       <c r="BI62" t="n">
-        <v>-19000</v>
-      </c>
-      <c r="BJ62" t="n">
-        <v>-19000</v>
-      </c>
-      <c r="BK62" t="n">
-        <v>-17000</v>
-      </c>
-      <c r="BL62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12692,31 +11948,31 @@
         <v>-190868.992</v>
       </c>
       <c r="D63" t="n">
-        <v>-34305</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>-32197</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>-29797</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-30040</v>
+        <v>-211791.008</v>
       </c>
       <c r="H63" t="n">
-        <v>-37063</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-36838</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>-37876</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>-27777</v>
+        <v>-274646.016</v>
       </c>
       <c r="L63" t="n">
-        <v>-30920</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -12845,36 +12101,22 @@
         <v>-49602</v>
       </c>
       <c r="BC63" t="n">
-        <v>-86000</v>
+        <v>-20038</v>
       </c>
       <c r="BD63" t="n">
-        <v>-76000</v>
+        <v>-28818</v>
       </c>
       <c r="BE63" t="n">
-        <v>-79000</v>
+        <v>-12382</v>
       </c>
       <c r="BF63" t="n">
-        <v>-94000</v>
-      </c>
-      <c r="BG63" t="n">
-        <v>-85000</v>
-      </c>
+        <v>-36465</v>
+      </c>
+      <c r="BG63" t="inlineStr"/>
       <c r="BH63" t="n">
-        <v>-83000</v>
+        <v>-31832</v>
       </c>
       <c r="BI63" t="n">
-        <v>-91000</v>
-      </c>
-      <c r="BJ63" t="n">
-        <v>-97000</v>
-      </c>
-      <c r="BK63" t="n">
-        <v>-101000</v>
-      </c>
-      <c r="BL63" t="n">
-        <v>-31832</v>
-      </c>
-      <c r="BM63" t="n">
         <v>-30549</v>
       </c>
     </row>
@@ -13035,25 +12277,11 @@
       <c r="BF64" t="n">
         <v>0</v>
       </c>
-      <c r="BG64" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG64" t="inlineStr"/>
       <c r="BH64" t="n">
         <v>0</v>
       </c>
       <c r="BI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13070,16 +12298,16 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>95</v>
+        <v>393868.992</v>
       </c>
       <c r="F65" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>931</v>
+        <v>-393868.992</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -13091,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>-512254.016</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -13223,36 +12451,22 @@
         <v>0</v>
       </c>
       <c r="BC65" t="n">
-        <v>0</v>
+        <v>-2084</v>
       </c>
       <c r="BD65" t="n">
         <v>0</v>
       </c>
       <c r="BE65" t="n">
-        <v>0</v>
+        <v>139012.992</v>
       </c>
       <c r="BF65" t="n">
         <v>0</v>
       </c>
-      <c r="BG65" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG65" t="inlineStr"/>
       <c r="BH65" t="n">
         <v>0</v>
       </c>
       <c r="BI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13269,31 +12483,31 @@
         <v>-2627980.032</v>
       </c>
       <c r="D66" t="n">
-        <v>-55</v>
+        <v>-29922</v>
       </c>
       <c r="E66" t="n">
-        <v>-19</v>
+        <v>-125482</v>
       </c>
       <c r="F66" t="n">
-        <v>-2769</v>
+        <v>-14138</v>
       </c>
       <c r="G66" t="n">
-        <v>-3622</v>
+        <v>-328344</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>-33612</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>-33882</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>-119920</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>143698</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>-86469</v>
       </c>
       <c r="M66" t="n">
         <v>-86469</v>
@@ -13422,36 +12636,22 @@
         <v>0</v>
       </c>
       <c r="BC66" t="n">
-        <v>-47000</v>
+        <v>0</v>
       </c>
       <c r="BD66" t="n">
-        <v>-57000</v>
+        <v>-19080</v>
       </c>
       <c r="BE66" t="n">
-        <v>-41000</v>
+        <v>0</v>
       </c>
       <c r="BF66" t="n">
-        <v>-46000</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>-33000</v>
-      </c>
+        <v>-1009</v>
+      </c>
+      <c r="BG66" t="inlineStr"/>
       <c r="BH66" t="n">
-        <v>-70000</v>
+        <v>-7365</v>
       </c>
       <c r="BI66" t="n">
-        <v>-64000</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>-45000</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>-46000</v>
-      </c>
-      <c r="BL66" t="n">
-        <v>-7365</v>
-      </c>
-      <c r="BM66" t="n">
         <v>102747</v>
       </c>
     </row>
@@ -13632,25 +12832,11 @@
       <c r="BF67" t="n">
         <v>0</v>
       </c>
-      <c r="BG67" t="n">
-        <v>0</v>
-      </c>
+      <c r="BG67" t="inlineStr"/>
       <c r="BH67" t="n">
         <v>0</v>
       </c>
       <c r="BI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13667,31 +12853,31 @@
         <v>-632830.976</v>
       </c>
       <c r="D68" t="n">
-        <v>-10913</v>
+        <v>-153904</v>
       </c>
       <c r="E68" t="n">
-        <v>-47056</v>
+        <v>228646</v>
       </c>
       <c r="F68" t="n">
-        <v>-35184</v>
+        <v>14617</v>
       </c>
       <c r="G68" t="n">
-        <v>-55938.008</v>
+        <v>10430</v>
       </c>
       <c r="H68" t="n">
-        <v>-11204</v>
+        <v>-183460.992</v>
       </c>
       <c r="I68" t="n">
-        <v>-27929</v>
+        <v>-146160.992</v>
       </c>
       <c r="J68" t="n">
-        <v>14677</v>
+        <v>-20080</v>
       </c>
       <c r="K68" t="n">
-        <v>-28094</v>
+        <v>-156272.032</v>
       </c>
       <c r="L68" t="n">
-        <v>-24065</v>
+        <v>-110594</v>
       </c>
       <c r="M68" t="n">
         <v>-110594</v>
@@ -13820,36 +13006,22 @@
         <v>-157576</v>
       </c>
       <c r="BC68" t="n">
-        <v>-176000</v>
+        <v>-166293.968</v>
       </c>
       <c r="BD68" t="n">
-        <v>-157000</v>
+        <v>-147495.008</v>
       </c>
       <c r="BE68" t="n">
-        <v>-211000</v>
+        <v>48188</v>
       </c>
       <c r="BF68" t="n">
-        <v>-164000</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>-215000</v>
-      </c>
+        <v>-92600</v>
+      </c>
+      <c r="BG68" t="inlineStr"/>
       <c r="BH68" t="n">
-        <v>-245000</v>
+        <v>-71501</v>
       </c>
       <c r="BI68" t="n">
-        <v>-278000</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>-237000</v>
-      </c>
-      <c r="BK68" t="n">
-        <v>-233000</v>
-      </c>
-      <c r="BL68" t="n">
-        <v>-71501</v>
-      </c>
-      <c r="BM68" t="n">
         <v>-73030</v>
       </c>
     </row>
@@ -13866,31 +13038,31 @@
         <v>36194</v>
       </c>
       <c r="D69" t="n">
-        <v>32578</v>
+        <v>30281</v>
       </c>
       <c r="E69" t="n">
-        <v>30143</v>
+        <v>24951</v>
       </c>
       <c r="F69" t="n">
-        <v>19052</v>
+        <v>21802</v>
       </c>
       <c r="G69" t="n">
-        <v>20307</v>
+        <v>17276</v>
       </c>
       <c r="H69" t="n">
-        <v>22034</v>
+        <v>15846</v>
       </c>
       <c r="I69" t="n">
-        <v>21319</v>
+        <v>23204</v>
       </c>
       <c r="J69" t="n">
-        <v>53293</v>
+        <v>18053</v>
       </c>
       <c r="K69" t="n">
-        <v>21845</v>
+        <v>-57103</v>
       </c>
       <c r="L69" t="n">
-        <v>42844</v>
+        <v>9484</v>
       </c>
       <c r="M69" t="n">
         <v>9484</v>
@@ -14019,36 +13191,22 @@
         <v>5971</v>
       </c>
       <c r="BC69" t="n">
-        <v>28000</v>
+        <v>10484</v>
       </c>
       <c r="BD69" t="n">
-        <v>55000</v>
+        <v>15981</v>
       </c>
       <c r="BE69" t="n">
-        <v>90000</v>
+        <v>402975.008</v>
       </c>
       <c r="BF69" t="n">
-        <v>82000</v>
-      </c>
-      <c r="BG69" t="n">
-        <v>50000</v>
-      </c>
+        <v>1627</v>
+      </c>
+      <c r="BG69" t="inlineStr"/>
       <c r="BH69" t="n">
-        <v>61000</v>
+        <v>68795</v>
       </c>
       <c r="BI69" t="n">
-        <v>24000</v>
-      </c>
-      <c r="BJ69" t="n">
-        <v>38000</v>
-      </c>
-      <c r="BK69" t="n">
-        <v>26000</v>
-      </c>
-      <c r="BL69" t="n">
-        <v>68795</v>
-      </c>
-      <c r="BM69" t="n">
         <v>65271</v>
       </c>
     </row>
@@ -14065,31 +13223,31 @@
         <v>-669025.024</v>
       </c>
       <c r="D70" t="n">
-        <v>-43491</v>
+        <v>-184184.992</v>
       </c>
       <c r="E70" t="n">
-        <v>-77199</v>
+        <v>203695.008</v>
       </c>
       <c r="F70" t="n">
-        <v>-54236</v>
+        <v>-7185</v>
       </c>
       <c r="G70" t="n">
-        <v>-76245.008</v>
+        <v>-6846.016</v>
       </c>
       <c r="H70" t="n">
-        <v>-33238</v>
+        <v>-199307.008</v>
       </c>
       <c r="I70" t="n">
-        <v>-49248</v>
+        <v>-169364.992</v>
       </c>
       <c r="J70" t="n">
-        <v>-38616</v>
+        <v>-38133</v>
       </c>
       <c r="K70" t="n">
-        <v>-49938.992</v>
+        <v>406804.992</v>
       </c>
       <c r="L70" t="n">
-        <v>-66909</v>
+        <v>-120078</v>
       </c>
       <c r="M70" t="n">
         <v>-120078</v>
@@ -14218,36 +13376,22 @@
         <v>-163547.008</v>
       </c>
       <c r="BC70" t="n">
-        <v>-204000</v>
+        <v>-176777.968</v>
       </c>
       <c r="BD70" t="n">
-        <v>-212000</v>
+        <v>-163476</v>
       </c>
       <c r="BE70" t="n">
-        <v>-301000</v>
+        <v>-354787.008</v>
       </c>
       <c r="BF70" t="n">
-        <v>-246000</v>
-      </c>
-      <c r="BG70" t="n">
-        <v>-265000</v>
-      </c>
+        <v>-94227</v>
+      </c>
+      <c r="BG70" t="inlineStr"/>
       <c r="BH70" t="n">
-        <v>-306000</v>
+        <v>-140296</v>
       </c>
       <c r="BI70" t="n">
-        <v>-302000</v>
-      </c>
-      <c r="BJ70" t="n">
-        <v>-275000</v>
-      </c>
-      <c r="BK70" t="n">
-        <v>-259000</v>
-      </c>
-      <c r="BL70" t="n">
-        <v>-140296</v>
-      </c>
-      <c r="BM70" t="n">
         <v>-138300.992</v>
       </c>
     </row>
@@ -14335,10 +13479,6 @@
       <c r="BG71" t="inlineStr"/>
       <c r="BH71" t="inlineStr"/>
       <c r="BI71" t="inlineStr"/>
-      <c r="BJ71" t="inlineStr"/>
-      <c r="BK71" t="inlineStr"/>
-      <c r="BL71" t="inlineStr"/>
-      <c r="BM71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14424,10 +13564,6 @@
       <c r="BG72" t="inlineStr"/>
       <c r="BH72" t="inlineStr"/>
       <c r="BI72" t="inlineStr"/>
-      <c r="BJ72" t="inlineStr"/>
-      <c r="BK72" t="inlineStr"/>
-      <c r="BL72" t="inlineStr"/>
-      <c r="BM72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14513,10 +13649,6 @@
       <c r="BG73" t="inlineStr"/>
       <c r="BH73" t="inlineStr"/>
       <c r="BI73" t="inlineStr"/>
-      <c r="BJ73" t="inlineStr"/>
-      <c r="BK73" t="inlineStr"/>
-      <c r="BL73" t="inlineStr"/>
-      <c r="BM73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14531,31 +13663,31 @@
         <v>-2968022.016</v>
       </c>
       <c r="D74" t="n">
-        <v>132023</v>
+        <v>159070</v>
       </c>
       <c r="E74" t="n">
-        <v>100166</v>
+        <v>876915.968</v>
       </c>
       <c r="F74" t="n">
-        <v>77694</v>
+        <v>309174.016</v>
       </c>
       <c r="G74" t="n">
-        <v>110560.008</v>
+        <v>-267484.976</v>
       </c>
       <c r="H74" t="n">
-        <v>190776</v>
+        <v>31643</v>
       </c>
       <c r="I74" t="n">
-        <v>161932</v>
+        <v>61898</v>
       </c>
       <c r="J74" t="n">
-        <v>87344</v>
+        <v>173678</v>
       </c>
       <c r="K74" t="n">
-        <v>99845.984</v>
+        <v>-93489</v>
       </c>
       <c r="L74" t="n">
-        <v>95352</v>
+        <v>112380</v>
       </c>
       <c r="M74" t="n">
         <v>112380</v>
@@ -14684,36 +13816,22 @@
         <v>-25293</v>
       </c>
       <c r="BC74" t="n">
-        <v>26000</v>
+        <v>-76993.016</v>
       </c>
       <c r="BD74" t="n">
-        <v>122000</v>
+        <v>3788</v>
       </c>
       <c r="BE74" t="n">
-        <v>31000</v>
+        <v>306972</v>
       </c>
       <c r="BF74" t="n">
-        <v>-57000</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>127000</v>
-      </c>
+        <v>-5974</v>
+      </c>
+      <c r="BG74" t="inlineStr"/>
       <c r="BH74" t="n">
-        <v>62000</v>
+        <v>31162</v>
       </c>
       <c r="BI74" t="n">
-        <v>-40000</v>
-      </c>
-      <c r="BJ74" t="n">
-        <v>-81000</v>
-      </c>
-      <c r="BK74" t="n">
-        <v>61000</v>
-      </c>
-      <c r="BL74" t="n">
-        <v>31162</v>
-      </c>
-      <c r="BM74" t="n">
         <v>119277</v>
       </c>
     </row>
@@ -14730,31 +13848,31 @@
         <v>-26443</v>
       </c>
       <c r="D75" t="n">
-        <v>-17872</v>
+        <v>-30357</v>
       </c>
       <c r="E75" t="n">
-        <v>-19721</v>
+        <v>-60152</v>
       </c>
       <c r="F75" t="n">
-        <v>-20641</v>
+        <v>-21097</v>
       </c>
       <c r="G75" t="n">
-        <v>-20682</v>
+        <v>-55164</v>
       </c>
       <c r="H75" t="n">
-        <v>-20370</v>
+        <v>-34857</v>
       </c>
       <c r="I75" t="n">
-        <v>-18148</v>
+        <v>-27403</v>
       </c>
       <c r="J75" t="n">
-        <v>-8688</v>
+        <v>-39249</v>
       </c>
       <c r="K75" t="n">
-        <v>-47182</v>
+        <v>-47351</v>
       </c>
       <c r="L75" t="n">
-        <v>-15295</v>
+        <v>-68456</v>
       </c>
       <c r="M75" t="n">
         <v>-68456</v>
@@ -14883,36 +14001,22 @@
         <v>-17384</v>
       </c>
       <c r="BC75" t="n">
-        <v>7000</v>
+        <v>-18515</v>
       </c>
       <c r="BD75" t="n">
-        <v>-10000</v>
+        <v>-11817</v>
       </c>
       <c r="BE75" t="n">
-        <v>10000</v>
+        <v>6944</v>
       </c>
       <c r="BF75" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>0</v>
-      </c>
+        <v>-590721.024</v>
+      </c>
+      <c r="BG75" t="inlineStr"/>
       <c r="BH75" t="n">
-        <v>0</v>
+        <v>-6007</v>
       </c>
       <c r="BI75" t="n">
-        <v>3000</v>
-      </c>
-      <c r="BJ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK75" t="n">
-        <v>1000</v>
-      </c>
-      <c r="BL75" t="n">
-        <v>-6007</v>
-      </c>
-      <c r="BM75" t="n">
         <v>-9713</v>
       </c>
     </row>
@@ -14929,31 +14033,31 @@
         <v>668315.008</v>
       </c>
       <c r="D76" t="n">
-        <v>-4266</v>
+        <v>-19716</v>
       </c>
       <c r="E76" t="n">
-        <v>4891</v>
+        <v>-147319.008</v>
       </c>
       <c r="F76" t="n">
-        <v>13121</v>
+        <v>-67955</v>
       </c>
       <c r="G76" t="n">
-        <v>152</v>
+        <v>86798.008</v>
       </c>
       <c r="H76" t="n">
-        <v>-20044</v>
+        <v>31313</v>
       </c>
       <c r="I76" t="n">
-        <v>-7602</v>
+        <v>43999</v>
       </c>
       <c r="J76" t="n">
-        <v>-5520</v>
+        <v>-24665</v>
       </c>
       <c r="K76" t="n">
-        <v>35947</v>
+        <v>17525</v>
       </c>
       <c r="L76" t="n">
-        <v>363</v>
+        <v>17067</v>
       </c>
       <c r="M76" t="n">
         <v>17067</v>
@@ -15082,36 +14186,22 @@
         <v>24548</v>
       </c>
       <c r="BC76" t="n">
-        <v>-10000</v>
+        <v>43343.016</v>
       </c>
       <c r="BD76" t="n">
-        <v>-29000</v>
+        <v>7915</v>
       </c>
       <c r="BE76" t="n">
-        <v>-27000</v>
+        <v>-69269</v>
       </c>
       <c r="BF76" t="n">
-        <v>21000</v>
-      </c>
-      <c r="BG76" t="n">
-        <v>-30000</v>
-      </c>
+        <v>-321571.008</v>
+      </c>
+      <c r="BG76" t="inlineStr"/>
       <c r="BH76" t="n">
-        <v>-21000</v>
+        <v>-9335</v>
       </c>
       <c r="BI76" t="n">
-        <v>14000</v>
-      </c>
-      <c r="BJ76" t="n">
-        <v>28000</v>
-      </c>
-      <c r="BK76" t="n">
-        <v>-21000</v>
-      </c>
-      <c r="BL76" t="n">
-        <v>-9335</v>
-      </c>
-      <c r="BM76" t="n">
         <v>-36816</v>
       </c>
     </row>
@@ -15199,10 +14289,6 @@
       <c r="BG77" t="inlineStr"/>
       <c r="BH77" t="inlineStr"/>
       <c r="BI77" t="inlineStr"/>
-      <c r="BJ77" t="inlineStr"/>
-      <c r="BK77" t="inlineStr"/>
-      <c r="BL77" t="inlineStr"/>
-      <c r="BM77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -15217,16 +14303,16 @@
         <v>-65500</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="E78" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="F78" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="G78" t="n">
-        <v>20100</v>
+        <v>-110000</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -15288,10 +14374,6 @@
       <c r="BG78" t="inlineStr"/>
       <c r="BH78" t="inlineStr"/>
       <c r="BI78" t="inlineStr"/>
-      <c r="BJ78" t="inlineStr"/>
-      <c r="BK78" t="inlineStr"/>
-      <c r="BL78" t="inlineStr"/>
-      <c r="BM78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -15364,19 +14446,23 @@
       <c r="BB79" t="n">
         <v>0</v>
       </c>
-      <c r="BC79" t="inlineStr"/>
-      <c r="BD79" t="inlineStr"/>
-      <c r="BE79" t="inlineStr"/>
-      <c r="BF79" t="inlineStr"/>
+      <c r="BC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>0</v>
+      </c>
       <c r="BG79" t="inlineStr"/>
-      <c r="BH79" t="inlineStr"/>
-      <c r="BI79" t="inlineStr"/>
-      <c r="BJ79" t="inlineStr"/>
-      <c r="BK79" t="inlineStr"/>
-      <c r="BL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM79" t="n">
+      <c r="BH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15393,31 +14479,31 @@
         <v>-2391650.048</v>
       </c>
       <c r="D80" t="n">
-        <v>109885</v>
+        <v>138996.992</v>
       </c>
       <c r="E80" t="n">
-        <v>125336</v>
+        <v>714444.992</v>
       </c>
       <c r="F80" t="n">
-        <v>90174</v>
+        <v>255122</v>
       </c>
       <c r="G80" t="n">
-        <v>110129.992</v>
+        <v>-345850.944</v>
       </c>
       <c r="H80" t="n">
-        <v>150362</v>
+        <v>28099</v>
       </c>
       <c r="I80" t="n">
-        <v>136182</v>
+        <v>78494</v>
       </c>
       <c r="J80" t="n">
-        <v>73136</v>
+        <v>109764</v>
       </c>
       <c r="K80" t="n">
-        <v>88611.008</v>
+        <v>-123315</v>
       </c>
       <c r="L80" t="n">
-        <v>80420</v>
+        <v>60991</v>
       </c>
       <c r="M80" t="n">
         <v>60991</v>
@@ -15546,36 +14632,22 @@
         <v>-18129</v>
       </c>
       <c r="BC80" t="n">
-        <v>23000</v>
+        <v>-52165</v>
       </c>
       <c r="BD80" t="n">
-        <v>83000</v>
+        <v>-114</v>
       </c>
       <c r="BE80" t="n">
-        <v>14000</v>
+        <v>244647.008</v>
       </c>
       <c r="BF80" t="n">
-        <v>-37000</v>
-      </c>
-      <c r="BG80" t="n">
-        <v>97000</v>
-      </c>
+        <v>-918265.9840000001</v>
+      </c>
+      <c r="BG80" t="inlineStr"/>
       <c r="BH80" t="n">
-        <v>41000</v>
+        <v>15820</v>
       </c>
       <c r="BI80" t="n">
-        <v>-23000</v>
-      </c>
-      <c r="BJ80" t="n">
-        <v>-53000</v>
-      </c>
-      <c r="BK80" t="n">
-        <v>41000</v>
-      </c>
-      <c r="BL80" t="n">
-        <v>15820</v>
-      </c>
-      <c r="BM80" t="n">
         <v>72748</v>
       </c>
     </row>
